--- a/3.xlsx
+++ b/3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haroo\Desktop\Course\Course 1 Final\02 Example 2 - Cleaning Dates Formatting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSComarch\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B45E0D-1557-41AB-8DCB-4E727AD55003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E856CC6-12A2-44E6-BD3D-ACAC046571BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>Row</t>
   </si>
@@ -163,6 +163,69 @@
   </si>
   <si>
     <t>Dates Cleaning using ChatGPT</t>
+  </si>
+  <si>
+    <t>15-03-2022</t>
+  </si>
+  <si>
+    <t>20-05-2022</t>
+  </si>
+  <si>
+    <t>25-05-2022</t>
+  </si>
+  <si>
+    <t>13-12-2022</t>
+  </si>
+  <si>
+    <t>14-12-2022</t>
+  </si>
+  <si>
+    <t>15-01-2023</t>
+  </si>
+  <si>
+    <t>16-02-2023</t>
+  </si>
+  <si>
+    <t>17-02-2023</t>
+  </si>
+  <si>
+    <t>18-03-2023</t>
+  </si>
+  <si>
+    <t>19-03-2023</t>
+  </si>
+  <si>
+    <t>20-04-2023</t>
+  </si>
+  <si>
+    <t>21-04-2023</t>
+  </si>
+  <si>
+    <t>22-04-2023</t>
+  </si>
+  <si>
+    <t>23-05-2023</t>
+  </si>
+  <si>
+    <t>24-05-2023</t>
+  </si>
+  <si>
+    <t>25-05-2023</t>
+  </si>
+  <si>
+    <t>26-06-2023</t>
+  </si>
+  <si>
+    <t>27-06-2023</t>
+  </si>
+  <si>
+    <t>28-07-2023</t>
+  </si>
+  <si>
+    <t>29-07-2023</t>
+  </si>
+  <si>
+    <t>30-08-2023</t>
   </si>
 </sst>
 </file>
@@ -274,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -297,9 +360,10 @@
     <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -578,39 +642,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="5.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="2" width="8.85546875" style="3"/>
+    <col min="3" max="3" width="5.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
@@ -624,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -637,8 +702,11 @@
       <c r="F6" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="10">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
         <v>2</v>
       </c>
@@ -651,8 +719,11 @@
       <c r="F7" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5">
         <v>3</v>
       </c>
@@ -665,8 +736,11 @@
       <c r="F8" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="10">
+        <v>44655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
         <v>4</v>
       </c>
@@ -679,8 +753,11 @@
       <c r="F9" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="5">
         <v>5</v>
       </c>
@@ -693,8 +770,11 @@
       <c r="F10" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <v>6</v>
       </c>
@@ -707,8 +787,11 @@
       <c r="F11" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="10">
+        <v>44718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="5">
         <v>7</v>
       </c>
@@ -721,8 +804,11 @@
       <c r="F12" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="10">
+        <v>44749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="5">
         <v>8</v>
       </c>
@@ -735,8 +821,11 @@
       <c r="F13" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="10">
+        <v>44781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="5">
         <v>9</v>
       </c>
@@ -749,8 +838,11 @@
       <c r="F14" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="10">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="5">
         <v>10</v>
       </c>
@@ -763,8 +855,11 @@
       <c r="F15" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="10">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="5">
         <v>11</v>
       </c>
@@ -777,8 +872,11 @@
       <c r="F16" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="10">
+        <v>44876</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="5">
         <v>12</v>
       </c>
@@ -791,8 +889,11 @@
       <c r="F17" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="10">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="5">
         <v>13</v>
       </c>
@@ -805,8 +906,11 @@
       <c r="F18" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="5">
         <v>14</v>
       </c>
@@ -819,8 +923,11 @@
       <c r="F19" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="5">
         <v>15</v>
       </c>
@@ -833,8 +940,11 @@
       <c r="F20" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="5">
         <v>16</v>
       </c>
@@ -847,8 +957,11 @@
       <c r="F21" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="5">
         <v>17</v>
       </c>
@@ -861,8 +974,11 @@
       <c r="F22" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="5">
         <v>18</v>
       </c>
@@ -875,8 +991,11 @@
       <c r="F23" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="5">
         <v>19</v>
       </c>
@@ -889,8 +1008,11 @@
       <c r="F24" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="5">
         <v>20</v>
       </c>
@@ -903,8 +1025,11 @@
       <c r="F25" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="5">
         <v>21</v>
       </c>
@@ -917,8 +1042,11 @@
       <c r="F26" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="5">
         <v>22</v>
       </c>
@@ -931,8 +1059,11 @@
       <c r="F27" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="5">
         <v>23</v>
       </c>
@@ -945,8 +1076,11 @@
       <c r="F28" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="3:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="5">
         <v>24</v>
       </c>
@@ -959,8 +1093,11 @@
       <c r="F29" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="5">
         <v>25</v>
       </c>
@@ -973,8 +1110,11 @@
       <c r="F30" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="5">
         <v>26</v>
       </c>
@@ -987,8 +1127,11 @@
       <c r="F31" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="5">
         <v>27</v>
       </c>
@@ -1001,8 +1144,11 @@
       <c r="F32" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
         <v>28</v>
       </c>
@@ -1015,8 +1161,11 @@
       <c r="F33" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
         <v>29</v>
       </c>
@@ -1029,8 +1178,11 @@
       <c r="F34" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="5">
         <v>30</v>
       </c>
@@ -1042,6 +1194,9 @@
       </c>
       <c r="F35" s="8" t="s">
         <v>10</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
